--- a/result_price.xlsx
+++ b/result_price.xlsx
@@ -441,108 +441,108 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12 64 Green</t>
+          <t>11 128 White</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45500</v>
+        <v>43000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>🇺🇸</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14 128 Purple</t>
+          <t>14 128 Blue</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>59000</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14 128 Purple</t>
+          <t>14 128 Blue</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63500</v>
+        <v>59500</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14 128 Purple</t>
+          <t>14 Pro 256 Purple</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>61500</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇸🇬</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>14 Pro 256 Purple</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63500</v>
+        <v>90500</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>🇺🇸</t>
+          <t>🇨🇦</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>14 Pro Max 128 Purple</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>59000</v>
+        <v>88700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇨🇦</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>14 Pro Max 128 Purple</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63500</v>
+        <v>88500</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>🇺🇸</t>
+          <t>🇯🇵</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>14 Pro Max 256 Purple</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>59000</v>
+        <v>97300</v>
       </c>
     </row>
     <row r="6">
@@ -553,11 +553,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14 Pro 512 Black</t>
+          <t>14 Pro Max 256 Purple</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>118000</v>
+        <v>96500</v>
       </c>
     </row>
   </sheetData>

--- a/result_price.xlsx
+++ b/result_price.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -445,20 +445,20 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43000</v>
+        <v>44000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇺🇸</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>11 64 Black</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>60500</v>
+        <v>37400</v>
       </c>
     </row>
     <row r="3">
@@ -469,95 +469,480 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>13 128 Pink</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59500</v>
+        <v>57500</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇬🇧</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14 Pro 256 Purple</t>
+          <t>11 64 Black</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>91000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>🇸🇬</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14 Pro 256 Purple</t>
+          <t>13 128 Blue</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90500</v>
+        <v>56500</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Purple</t>
+          <t>12 64 Black</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>88700</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Purple</t>
+          <t>14 128 Purple</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88500</v>
+        <v>64000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇨🇳</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14 Pro Max 256 Purple</t>
+          <t>13 128 Pink</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>97300</v>
+        <v>57500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14 128 Starlight</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13 128 Pink</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>57700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14 Plus 128 Blue</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>70500</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13 128 Blue</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>🇯🇵</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Silver</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14 128 Midnight</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>63700</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Black</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>87500</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>14 128 Starlight</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Gold</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>94000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14 128 Purple</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>63500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Purple</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>95000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14 Plus 128 Blue</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Purple</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>97000</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Black</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Black</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>94500</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Silver</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>14 Pro Max 256 Purple</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>96500</v>
+      <c r="C14" t="n">
+        <v>102500</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Purple</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Silver</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>104500</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Black</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Gold</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>93800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Gold</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Gold</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Purple</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Purple</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>94700</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Black</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>93500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Black</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>93700</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Purple</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>101500</v>
       </c>
     </row>
   </sheetData>
